--- a/medicine/Mort/Cimetière_national_de_Glendale/Cimetière_national_de_Glendale.xlsx
+++ b/medicine/Mort/Cimetière_national_de_Glendale/Cimetière_national_de_Glendale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_Glendale</t>
+          <t>Cimetière_national_de_Glendale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière national de Glendale est un cimetière national des États-Unis situé près de la ville de Richmond, dans le comté de Henrico, en Virginie. Administré par le département des États-Unis des affaires des anciens combattants, il s'étend sur 2,1 acres (0,8 ha), et à la fin de 2005 contenait 2 064 inhumations. Il est fermé à de nouvelles inhumations.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_Glendale</t>
+          <t>Cimetière_national_de_Glendale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière national de Glendale est créé le 7 mai 1866, et nommé d'après une ferme qui était à l'époque sur la propriété. Les premières inhumations sont celles des restes des soldats de l'Union morts lors de la bataille de Malvern Hill et d'autres champs de bataille à proximité de la guerre de Sécession.
 Le cimetière national de Glendale est inscrit sur le registre national des lieux historiques en 1996.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_Glendale</t>
+          <t>Cimetière_national_de_Glendale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Inhumations notables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le caporal Michael Fleming Folland (1949-1969), récipiendaire de la médaille d'honneur pour son action lors de la guerre du Viêt Nam.</t>
         </is>
